--- a/excel_casovna_p2_v_delu.xlsx
+++ b/excel_casovna_p2_v_delu.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Spin\PavsicD16$\_System\MyDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darjan - uporabnik\Documents\WIENER-FP\wiener-inverse-interval-problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397D7FB9-75F2-4012-A135-66879D9A2381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16320" windowHeight="3900"/>
+    <workbookView minimized="1" xWindow="570" yWindow="600" windowWidth="19755" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>število vozlišč</t>
   </si>
@@ -37,13 +44,25 @@
   <si>
     <t>povpr.</t>
   </si>
+  <si>
+    <t>DOMA</t>
+  </si>
+  <si>
+    <t>Število korakov</t>
+  </si>
+  <si>
+    <t>Čas</t>
+  </si>
+  <si>
+    <t>n=200</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -77,10 +96,10 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -98,7 +117,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="sl-SI"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -110,7 +129,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI"/>
+              <a:t>Časovna zahtevnost P2 glede na število vozlišč</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -151,11 +195,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$2</c:f>
+              <c:f>Sheet1!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>povpr.</c:v>
+                  <c:v>DOMA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -199,10 +243,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$20</c:f>
+              <c:f>Sheet1!$B$3:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -256,36 +300,105 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$20</c:f>
+              <c:f>Sheet1!$H$3:$H$26</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.29875000000000002</c:v>
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36475000000000002</c:v>
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.159</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.442</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.64200000000000002</c:v>
+                  <c:v>0.33700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.619</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3432500000000001</c:v>
+                  <c:v>2.7440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0145</c:v>
+                  <c:v>2.8319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.181</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.200000000000003</c:v>
+                  <c:v>6.1239999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.605</c:v>
+                  <c:v>62.26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.61</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25.37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70.14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53.45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>159.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -374,6 +487,7 @@
         <c:axId val="494330880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -391,7 +505,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -477,7 +591,513 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sl-SI"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Čas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sl-SI"/>
+              <a:t>ovna zahtevnost v odvisnosti</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sl-SI" baseline="0"/>
+              <a:t> od št. korakov ohlajanja (s)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12425"/>
+          <c:y val="2.2988505747126436E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Čas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$31:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$31:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.956</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.89300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.274</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.169</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.1470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.84499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.847</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-93DC-4E4B-9627-27B7ED7D219D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="586385136"/>
+        <c:axId val="586385464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="586385136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="586385464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="586385464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="586385136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sl-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1033,24 +1653,546 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1060,6 +2202,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafikon 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{128EC62B-8A4C-4236-8ED5-BE9C150ABDA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1330,16 +2508,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1354,6 +2532,9 @@
       <c r="G2" t="s">
         <v>3</v>
       </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
       <c r="K2" t="s">
         <v>2</v>
       </c>
@@ -1381,6 +2562,9 @@
         <f>AVERAGE(C3:F3)</f>
         <v>0.29875000000000002</v>
       </c>
+      <c r="H3">
+        <v>8.9999999999999993E-3</v>
+      </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -1390,6 +2574,9 @@
         <v>0.29699999999999999</v>
       </c>
       <c r="G4" s="1"/>
+      <c r="H4">
+        <v>1.9E-2</v>
+      </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -1399,6 +2586,9 @@
         <v>0.28799999999999998</v>
       </c>
       <c r="G5" s="1"/>
+      <c r="H5">
+        <v>2.1000000000000001E-2</v>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -1408,6 +2598,9 @@
         <v>0.34</v>
       </c>
       <c r="G6" s="1"/>
+      <c r="H6">
+        <v>3.1E-2</v>
+      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7">
@@ -1426,8 +2619,11 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G4:G20" si="0">AVERAGE(C7:F7)</f>
+        <f t="shared" ref="G7:G20" si="0">AVERAGE(C7:F7)</f>
         <v>0.36475000000000002</v>
+      </c>
+      <c r="H7">
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -1438,6 +2634,9 @@
         <v>0.36</v>
       </c>
       <c r="G8" s="1"/>
+      <c r="H8">
+        <v>3.7999999999999999E-2</v>
+      </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9">
@@ -1450,6 +2649,9 @@
         <v>0.36</v>
       </c>
       <c r="G9" s="1"/>
+      <c r="H9">
+        <v>0.50700000000000001</v>
+      </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -1462,6 +2664,9 @@
         <v>0.43</v>
       </c>
       <c r="G10" s="1"/>
+      <c r="H10">
+        <v>0.159</v>
+      </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -1474,6 +2679,9 @@
         <v>0.34899999999999998</v>
       </c>
       <c r="G11" s="1"/>
+      <c r="H11">
+        <v>0.442</v>
+      </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12">
@@ -1495,6 +2703,9 @@
         <f t="shared" si="0"/>
         <v>0.64200000000000002</v>
       </c>
+      <c r="H12">
+        <v>0.33700000000000002</v>
+      </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13">
@@ -1507,6 +2718,9 @@
         <v>1.0580000000000001</v>
       </c>
       <c r="G13" s="1"/>
+      <c r="H13">
+        <v>1.619</v>
+      </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -1528,12 +2742,18 @@
         <f t="shared" si="0"/>
         <v>1.3432500000000001</v>
       </c>
+      <c r="H14">
+        <v>2.7440000000000002</v>
+      </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>250</v>
       </c>
       <c r="G15" s="1"/>
+      <c r="H15">
+        <v>5.8319999999999999</v>
+      </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -1555,14 +2775,20 @@
         <f t="shared" si="0"/>
         <v>4.0145</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>2.8319999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>350</v>
       </c>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>2.181</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>400</v>
       </c>
@@ -1582,14 +2808,20 @@
         <f t="shared" si="0"/>
         <v>20.200000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>6.1239999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>450</v>
       </c>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>500</v>
       </c>
@@ -1609,30 +2841,404 @@
         <f t="shared" si="0"/>
         <v>19.605</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>62.26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21">
+        <v>550</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21">
+        <v>32.61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>600</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22">
+      <c r="H22">
+        <v>25.37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>650</v>
+      </c>
+      <c r="H23">
+        <v>70.14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>700</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23">
+      <c r="H24">
+        <v>53.45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25">
         <v>800</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24">
+      <c r="H25">
+        <v>159.69999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26">
         <v>900</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25">
+      <c r="H26">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>1.238</v>
+      </c>
+      <c r="E31">
+        <f>B31/1000</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F31">
+        <f>E31</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>2.9649999999999999</v>
+      </c>
+      <c r="E32">
+        <f>B32/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:F51" si="1">E32</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>3.1850000000000001</v>
+      </c>
+      <c r="E33">
+        <f>B33/1000</f>
+        <v>0.02</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>50</v>
+      </c>
+      <c r="C34">
+        <v>3.4089999999999998</v>
+      </c>
+      <c r="E34">
+        <f>B34/1000</f>
+        <v>0.05</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>100</v>
+      </c>
+      <c r="C35">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="E35">
+        <f>B35/1000</f>
+        <v>0.1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>200</v>
+      </c>
+      <c r="C36">
+        <v>3.58</v>
+      </c>
+      <c r="E36">
+        <f>B36/1000</f>
+        <v>0.2</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>500</v>
+      </c>
+      <c r="C37">
+        <v>2.2490000000000001</v>
+      </c>
+      <c r="E37">
+        <f>B37/1000</f>
+        <v>0.5</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
         <v>1000</v>
+      </c>
+      <c r="C38">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="E38">
+        <f>B38/1000</f>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>2000</v>
+      </c>
+      <c r="C39">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="E39">
+        <f>B39/1000</f>
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>3000</v>
+      </c>
+      <c r="C40">
+        <v>3.8559999999999999</v>
+      </c>
+      <c r="E40">
+        <f>B40/1000</f>
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>4000</v>
+      </c>
+      <c r="C41">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="E41">
+        <f>B41/1000</f>
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>5000</v>
+      </c>
+      <c r="C42">
+        <v>3.956</v>
+      </c>
+      <c r="E42">
+        <f>B42/1000</f>
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>6000</v>
+      </c>
+      <c r="C43">
+        <v>2.6920000000000002</v>
+      </c>
+      <c r="E43">
+        <f>B43/1000</f>
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>7500</v>
+      </c>
+      <c r="C44">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="E44">
+        <f>B44/1000</f>
+        <v>7.5</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>10000</v>
+      </c>
+      <c r="C45">
+        <v>2.274</v>
+      </c>
+      <c r="E45">
+        <f>B45/1000</f>
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>12500</v>
+      </c>
+      <c r="C46">
+        <v>1.169</v>
+      </c>
+      <c r="E46">
+        <f>B46/1000</f>
+        <v>12.5</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>15000</v>
+      </c>
+      <c r="C47">
+        <v>3.3260000000000001</v>
+      </c>
+      <c r="E47">
+        <f>B47/1000</f>
+        <v>15</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>20000</v>
+      </c>
+      <c r="C48">
+        <v>4.1470000000000002</v>
+      </c>
+      <c r="E48">
+        <f>B48/1000</f>
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>30000</v>
+      </c>
+      <c r="C49">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="E49">
+        <f>B49/1000</f>
+        <v>30</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>40000</v>
+      </c>
+      <c r="C50">
+        <v>1.847</v>
+      </c>
+      <c r="E50">
+        <f>B50/1000</f>
+        <v>40</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>50000</v>
+      </c>
+      <c r="C51">
+        <v>7.157</v>
+      </c>
+      <c r="E51">
+        <f>B51/1000</f>
+        <v>50</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/excel_casovna_p2_v_delu.xlsx
+++ b/excel_casovna_p2_v_delu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darjan - uporabnik\Documents\WIENER-FP\wiener-inverse-interval-problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397D7FB9-75F2-4012-A135-66879D9A2381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3E9FB8-ECD0-4EE7-A61B-115D6FE4EFB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="570" yWindow="600" windowWidth="19755" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,13 +48,13 @@
     <t>DOMA</t>
   </si>
   <si>
-    <t>Število korakov</t>
-  </si>
-  <si>
     <t>Čas</t>
   </si>
   <si>
     <t>n=200</t>
+  </si>
+  <si>
+    <t>Število korakov (v tisoč)</t>
   </si>
 </sst>
 </file>
@@ -634,8 +634,13 @@
             </a:r>
             <a:r>
               <a:rPr lang="sl-SI" baseline="0"/>
-              <a:t> od št. korakov ohlajanja (s)</a:t>
+              <a:t> od št. korakov (v tisoč) v funkciji iskanje(k,200) </a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
@@ -2209,14 +2214,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>52387</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>242887</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -2511,13 +2516,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2896,13 +2901,13 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
         <v>5</v>
       </c>
-      <c r="C30" t="s">
+      <c r="I30" t="s">
         <v>6</v>
-      </c>
-      <c r="I30" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -2913,7 +2918,7 @@
         <v>1.238</v>
       </c>
       <c r="E31">
-        <f>B31/1000</f>
+        <f t="shared" ref="E31:E51" si="1">B31/1000</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F31">
@@ -2929,11 +2934,11 @@
         <v>2.9649999999999999</v>
       </c>
       <c r="E32">
-        <f>B32/1000</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="F32">
-        <f t="shared" ref="F32:F51" si="1">E32</f>
+        <f t="shared" ref="F32:F51" si="2">E32</f>
         <v>0.01</v>
       </c>
     </row>
@@ -2945,11 +2950,11 @@
         <v>3.1850000000000001</v>
       </c>
       <c r="E33">
-        <f>B33/1000</f>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
     </row>
@@ -2961,11 +2966,11 @@
         <v>3.4089999999999998</v>
       </c>
       <c r="E34">
-        <f>B34/1000</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
     </row>
@@ -2977,11 +2982,11 @@
         <v>2.6669999999999998</v>
       </c>
       <c r="E35">
-        <f>B35/1000</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
     </row>
@@ -2993,11 +2998,11 @@
         <v>3.58</v>
       </c>
       <c r="E36">
-        <f>B36/1000</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
     </row>
@@ -3009,11 +3014,11 @@
         <v>2.2490000000000001</v>
       </c>
       <c r="E37">
-        <f>B37/1000</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
@@ -3025,11 +3030,11 @@
         <v>0.93700000000000006</v>
       </c>
       <c r="E38">
-        <f>B38/1000</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3041,11 +3046,11 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="E39">
-        <f>B39/1000</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -3057,11 +3062,11 @@
         <v>3.8559999999999999</v>
       </c>
       <c r="E40">
-        <f>B40/1000</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -3073,11 +3078,11 @@
         <v>0.36799999999999999</v>
       </c>
       <c r="E41">
-        <f>B41/1000</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3089,11 +3094,11 @@
         <v>3.956</v>
       </c>
       <c r="E42">
-        <f>B42/1000</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -3105,11 +3110,11 @@
         <v>2.6920000000000002</v>
       </c>
       <c r="E43">
-        <f>B43/1000</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -3121,11 +3126,11 @@
         <v>0.89300000000000002</v>
       </c>
       <c r="E44">
-        <f>B44/1000</f>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
     </row>
@@ -3137,11 +3142,11 @@
         <v>2.274</v>
       </c>
       <c r="E45">
-        <f>B45/1000</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -3153,11 +3158,11 @@
         <v>1.169</v>
       </c>
       <c r="E46">
-        <f>B46/1000</f>
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
@@ -3169,11 +3174,11 @@
         <v>3.3260000000000001</v>
       </c>
       <c r="E47">
-        <f>B47/1000</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -3185,11 +3190,11 @@
         <v>4.1470000000000002</v>
       </c>
       <c r="E48">
-        <f>B48/1000</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -3201,11 +3206,11 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="E49">
-        <f>B49/1000</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
@@ -3217,11 +3222,11 @@
         <v>1.847</v>
       </c>
       <c r="E50">
-        <f>B50/1000</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
@@ -3233,11 +3238,11 @@
         <v>7.157</v>
       </c>
       <c r="E51">
-        <f>B51/1000</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>

--- a/excel_casovna_p2_v_delu.xlsx
+++ b/excel_casovna_p2_v_delu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darjan - uporabnik\Documents\WIENER-FP\wiener-inverse-interval-problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3E9FB8-ECD0-4EE7-A61B-115D6FE4EFB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975EE2DF-F369-47CD-8123-A52CA9408EEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="600" windowWidth="17580" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>število vozlišč</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Število korakov (v tisoč)</t>
+  </si>
+  <si>
+    <t>Število korakov</t>
+  </si>
+  <si>
+    <t>n=6000</t>
   </si>
 </sst>
 </file>
@@ -1062,6 +1068,478 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sl-SI"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Čas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sl-SI"/>
+              <a:t>ovna zahtevnost glede</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sl-SI" baseline="0"/>
+              <a:t> na število korakov v funkciji iskanje(k, 6000)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Čas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$55:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$55:$C$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.57199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.93</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48.86</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63.49</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96.33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>134.97</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>214.89</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>456.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>824.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B7F-4405-8C26-109E091B5E55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="461665848"/>
+        <c:axId val="461666176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="461665848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="461666176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="461666176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="461665848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sl-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1142,6 +1620,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1659,6 +2177,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2243,6 +3277,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafikon 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02920F4-BE34-47BA-B788-EAD1BBFB3D93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2514,10 +3584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L51"/>
+  <dimension ref="B2:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3198,7 +4268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>30000</v>
       </c>
@@ -3214,7 +4284,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>40000</v>
       </c>
@@ -3230,7 +4300,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>50000</v>
       </c>
@@ -3244,6 +4314,185 @@
       <c r="F51">
         <f t="shared" si="2"/>
         <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0.57199999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>2.274</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>3.391</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>15</v>
+      </c>
+      <c r="C60">
+        <v>7.0030000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>25</v>
+      </c>
+      <c r="C62">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>30</v>
+      </c>
+      <c r="C63">
+        <v>14.13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>40</v>
+      </c>
+      <c r="C64">
+        <v>19.14</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>50</v>
+      </c>
+      <c r="C65">
+        <v>23.93</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>60</v>
+      </c>
+      <c r="C66">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>70</v>
+      </c>
+      <c r="C67">
+        <v>32.22</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>85</v>
+      </c>
+      <c r="C68">
+        <v>39.81</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>100</v>
+      </c>
+      <c r="C69">
+        <v>48.86</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>150</v>
+      </c>
+      <c r="C70">
+        <v>63.49</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>200</v>
+      </c>
+      <c r="C71">
+        <v>96.33</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>300</v>
+      </c>
+      <c r="C72">
+        <v>134.97</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>500</v>
+      </c>
+      <c r="C73">
+        <v>214.89</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>1000</v>
+      </c>
+      <c r="C74">
+        <v>456.9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>2000</v>
+      </c>
+      <c r="C75">
+        <v>824.1</v>
       </c>
     </row>
   </sheetData>

--- a/excel_casovna_p2_v_delu.xlsx
+++ b/excel_casovna_p2_v_delu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darjan - uporabnik\Documents\WIENER-FP\wiener-inverse-interval-problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975EE2DF-F369-47CD-8123-A52CA9408EEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843D9554-3FDE-41BD-A8A5-4460556DE41C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="600" windowWidth="17580" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -244,6 +244,7 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -3220,8 +3221,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3287,13 +3288,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>242887</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>433387</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3586,8 +3587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/excel_casovna_p2_v_delu.xlsx
+++ b/excel_casovna_p2_v_delu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darjan - uporabnik\Documents\WIENER-FP\wiener-inverse-interval-problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843D9554-3FDE-41BD-A8A5-4460556DE41C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A721B3A-CBA9-4080-A044-0E9166A37601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,63 +134,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="sl-SI"/>
-              <a:t>Časovna zahtevnost P2 glede na število vozlišč</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sl-SI"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -222,7 +166,9 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -250,10 +196,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$26</c:f>
+              <c:f>Sheet1!$B$3:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -285,45 +231,114 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>350</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>450</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="25">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="27">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>550</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="30">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>600</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="32">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>650</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="35">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>700</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="37">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>800</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="42">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>900</c:v>
                 </c:pt>
               </c:numCache>
@@ -331,10 +346,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$26</c:f>
+              <c:f>Sheet1!$H$3:$H$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
@@ -366,45 +381,114 @@
                   <c:v>0.33700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.78100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1.619</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>1.5549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>2.7440000000000002</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
+                  <c:v>12.51</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>5.8319999999999999</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
+                  <c:v>6.15</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2.8319999999999999</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
+                  <c:v>6.2629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>2.181</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
+                  <c:v>12.81</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>6.1239999999999997</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
+                  <c:v>16.71</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.55</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="25">
+                  <c:v>67.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>62.26</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="27">
+                  <c:v>58.17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>110.55</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>32.61</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="30">
+                  <c:v>88.02</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>25.37</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="32">
+                  <c:v>5.1630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27.37</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>70.14</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="35">
+                  <c:v>154.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>53.45</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="37">
+                  <c:v>50.82</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>188.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>242.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>158.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>159.69999999999999</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="42">
+                  <c:v>94.66</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>489.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>117.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>210.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>449</c:v>
                 </c:pt>
               </c:numCache>
@@ -449,6 +533,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sl-SI"/>
+                  <a:t>Število vozlišč</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sl-SI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -512,6 +651,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sl-SI"/>
+                  <a:t>Čas (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sl-SI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -612,84 +806,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Čas</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="sl-SI"/>
-              <a:t>ovna zahtevnost v odvisnosti</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="sl-SI" baseline="0"/>
-              <a:t> od št. korakov (v tisoč) v funkciji iskanje(k,200) </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12425"/>
-          <c:y val="2.2988505747126436E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sl-SI"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -700,7 +817,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$30</c:f>
+              <c:f>Sheet1!$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -721,7 +838,9 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -733,7 +852,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$31:$B$51</c:f>
+              <c:f>Sheet1!$B$57:$B$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -805,7 +924,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$31:$C$51</c:f>
+              <c:f>Sheet1!$C$57:$C$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -914,6 +1033,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sl-SI"/>
+                  <a:t>Število korakov algoritma (v</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sl-SI" baseline="0"/>
+                  <a:t> tisoč)</a:t>
+                </a:r>
+                <a:endParaRPr lang="sl-SI"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sl-SI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -976,6 +1155,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sl-SI"/>
+                  <a:t>Čas (s)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sl-SI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1083,73 +1323,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Čas</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="sl-SI"/>
-              <a:t>ovna zahtevnost glede</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="sl-SI" baseline="0"/>
-              <a:t> na število korakov v funkciji iskanje(k, 6000)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sl-SI"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13815048118985127"/>
+          <c:y val="4.8726467331118496E-2"/>
+          <c:w val="0.80420368698397127"/>
+          <c:h val="0.75458114247346986"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1158,7 +1344,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$54</c:f>
+              <c:f>Sheet1!$C$80</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1168,7 +1354,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1205,7 +1391,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$55:$B$75</c:f>
+              <c:f>Sheet1!$B$81:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1277,7 +1463,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$55:$C$75</c:f>
+              <c:f>Sheet1!$C$81:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1386,6 +1572,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sl-SI"/>
+                  <a:t>Število korakov algoritma</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sl-SI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1448,6 +1689,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Čas (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sl-SI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3222,7 +3518,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>500062</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3251,14 +3547,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3286,15 +3582,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>242887</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>261936</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>433387</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3585,10 +3881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L75"/>
+  <dimension ref="B2:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3695,7 +3991,7 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G7:G20" si="0">AVERAGE(C7:F7)</f>
+        <f>AVERAGE(C7:F7)</f>
         <v>0.36475000000000002</v>
       </c>
       <c r="H7">
@@ -3776,7 +4072,7 @@
         <v>0.76700000000000002</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C12:F12)</f>
         <v>0.64200000000000002</v>
       </c>
       <c r="H12">
@@ -3785,563 +4081,384 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>150</v>
-      </c>
-      <c r="C13">
-        <v>3.0920000000000001</v>
-      </c>
-      <c r="D13">
-        <v>1.0580000000000001</v>
-      </c>
-      <c r="G13" s="1"/>
+        <v>120</v>
+      </c>
       <c r="H13">
-        <v>1.619</v>
+        <v>0.78100000000000003</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C14">
-        <v>1.9139999999999999</v>
+        <v>3.0920000000000001</v>
       </c>
       <c r="D14">
-        <v>0.99</v>
-      </c>
-      <c r="E14">
-        <v>1.3740000000000001</v>
-      </c>
-      <c r="F14">
-        <v>1.095</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3432500000000001</v>
-      </c>
+        <v>1.0580000000000001</v>
+      </c>
+      <c r="G14" s="1"/>
       <c r="H14">
-        <v>2.7440000000000002</v>
+        <v>1.619</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>250</v>
-      </c>
-      <c r="G15" s="1"/>
+        <v>170</v>
+      </c>
       <c r="H15">
-        <v>5.8319999999999999</v>
+        <v>1.5549999999999999</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16">
+        <v>200</v>
+      </c>
+      <c r="C16">
+        <v>1.9139999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.99</v>
+      </c>
+      <c r="E16">
+        <v>1.3740000000000001</v>
+      </c>
+      <c r="F16">
+        <v>1.095</v>
+      </c>
+      <c r="G16" s="1">
+        <f>AVERAGE(C16:F16)</f>
+        <v>1.3432500000000001</v>
+      </c>
+      <c r="H16">
+        <v>2.7440000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>220</v>
+      </c>
+      <c r="H17">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>250</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18">
+        <v>5.8319999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>270</v>
+      </c>
+      <c r="H19">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>300</v>
       </c>
-      <c r="C16">
+      <c r="C20">
         <v>1.897</v>
       </c>
-      <c r="D16">
+      <c r="D20">
         <v>7.3840000000000003</v>
       </c>
-      <c r="E16">
+      <c r="E20">
         <v>1.734</v>
       </c>
-      <c r="F16">
+      <c r="F20">
         <v>5.0430000000000001</v>
       </c>
-      <c r="G16" s="1">
-        <f t="shared" si="0"/>
+      <c r="G20" s="1">
+        <f>AVERAGE(C20:F20)</f>
         <v>4.0145</v>
       </c>
-      <c r="H16">
+      <c r="H20">
         <v>2.8319999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>320</v>
+      </c>
+      <c r="H21">
+        <v>6.2629999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>350</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17">
+      <c r="G22" s="1"/>
+      <c r="H22">
         <v>2.181</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>370</v>
+      </c>
+      <c r="H23">
+        <v>12.81</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>400</v>
       </c>
-      <c r="C18">
+      <c r="C24">
         <v>10.85</v>
       </c>
-      <c r="D18">
+      <c r="D24">
         <v>29.04</v>
       </c>
-      <c r="E18">
+      <c r="E24">
         <v>12.63</v>
       </c>
-      <c r="F18">
+      <c r="F24">
         <v>28.28</v>
       </c>
-      <c r="G18" s="1">
-        <f t="shared" si="0"/>
+      <c r="G24" s="1">
+        <f>AVERAGE(C24:F24)</f>
         <v>20.200000000000003</v>
       </c>
-      <c r="H18">
+      <c r="H24">
         <v>6.1239999999999997</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>420</v>
+      </c>
+      <c r="H25">
+        <v>16.71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>436</v>
+      </c>
+      <c r="H26">
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27">
         <v>450</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19">
+      <c r="G27" s="1"/>
+      <c r="H27">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>470</v>
+      </c>
+      <c r="H28">
+        <v>67.239999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29">
         <v>500</v>
       </c>
-      <c r="C20">
+      <c r="C29">
         <v>11.73</v>
       </c>
-      <c r="D20">
+      <c r="D29">
         <v>16.22</v>
       </c>
-      <c r="E20">
+      <c r="E29">
         <v>18.61</v>
       </c>
-      <c r="F20">
+      <c r="F29">
         <v>31.86</v>
       </c>
-      <c r="G20" s="1">
-        <f t="shared" si="0"/>
+      <c r="G29" s="1">
+        <f>AVERAGE(C29:F29)</f>
         <v>19.605</v>
       </c>
-      <c r="H20">
+      <c r="H29">
         <v>62.26</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>520</v>
+      </c>
+      <c r="H30">
+        <v>58.17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>536</v>
+      </c>
+      <c r="H31">
+        <v>110.55</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32">
         <v>550</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21">
+      <c r="G32" s="1"/>
+      <c r="H32">
         <v>32.61</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>570</v>
+      </c>
+      <c r="H33">
+        <v>88.02</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34">
         <v>600</v>
       </c>
-      <c r="H22">
+      <c r="H34">
         <v>25.37</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>620</v>
+      </c>
+      <c r="H35">
+        <v>5.1630000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>636</v>
+      </c>
+      <c r="H36">
+        <v>27.37</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37">
         <v>650</v>
       </c>
-      <c r="H23">
+      <c r="H37">
         <v>70.14</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>670</v>
+      </c>
+      <c r="H38">
+        <v>154.9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39">
         <v>700</v>
       </c>
-      <c r="H24">
+      <c r="H39">
         <v>53.45</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>720</v>
+      </c>
+      <c r="H40">
+        <v>50.82</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>736</v>
+      </c>
+      <c r="H41">
+        <v>188.5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>750</v>
+      </c>
+      <c r="H42">
+        <v>242.8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>770</v>
+      </c>
+      <c r="H43">
+        <v>158.4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44">
         <v>800</v>
       </c>
-      <c r="H25">
+      <c r="H44">
         <v>159.69999999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>900</v>
-      </c>
-      <c r="H26">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>1.238</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ref="E31:E51" si="1">B31/1000</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F31">
-        <f>E31</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>10</v>
-      </c>
-      <c r="C32">
-        <v>2.9649999999999999</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="F32">
-        <f t="shared" ref="F32:F51" si="2">E32</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>20</v>
-      </c>
-      <c r="C33">
-        <v>3.1850000000000001</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="2"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>50</v>
-      </c>
-      <c r="C34">
-        <v>3.4089999999999998</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="2"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>100</v>
-      </c>
-      <c r="C35">
-        <v>2.6669999999999998</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>200</v>
-      </c>
-      <c r="C36">
-        <v>3.58</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>500</v>
-      </c>
-      <c r="C37">
-        <v>2.2490000000000001</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>1000</v>
-      </c>
-      <c r="C38">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>2000</v>
-      </c>
-      <c r="C39">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>3000</v>
-      </c>
-      <c r="C40">
-        <v>3.8559999999999999</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>4000</v>
-      </c>
-      <c r="C41">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>5000</v>
-      </c>
-      <c r="C42">
-        <v>3.956</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>6000</v>
-      </c>
-      <c r="C43">
-        <v>2.6920000000000002</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>7500</v>
-      </c>
-      <c r="C44">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="2"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45">
-        <v>10000</v>
-      </c>
-      <c r="C45">
-        <v>2.274</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+      <c r="H45">
+        <v>94.66</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>12500</v>
-      </c>
-      <c r="C46">
-        <v>1.169</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="2"/>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+        <v>836</v>
+      </c>
+      <c r="H46">
+        <v>489.2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>15000</v>
-      </c>
-      <c r="C47">
-        <v>3.3260000000000001</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+      <c r="H47">
+        <v>117.2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>20000</v>
-      </c>
-      <c r="C48">
-        <v>4.1470000000000002</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <v>870</v>
+      </c>
+      <c r="H48">
+        <v>210.8</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>30000</v>
-      </c>
-      <c r="C49">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>40000</v>
-      </c>
-      <c r="C50">
-        <v>1.847</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>50000</v>
-      </c>
-      <c r="C51">
-        <v>7.157</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" t="s">
+        <v>900</v>
+      </c>
+      <c r="H49">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
         <v>5</v>
       </c>
-      <c r="I54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>0.57199999999999995</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>2</v>
-      </c>
-      <c r="C56">
-        <v>0.90300000000000002</v>
+      <c r="I56" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -4349,154 +4466,520 @@
         <v>5</v>
       </c>
       <c r="C57">
-        <v>2.274</v>
+        <v>1.238</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ref="E57:E77" si="0">B57/1000</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F57">
+        <f>E57</f>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C58">
-        <v>3.391</v>
+        <v>2.9649999999999999</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ref="F58:F77" si="1">E58</f>
+        <v>0.01</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C59">
-        <v>4.8</v>
+        <v>3.1850000000000001</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C60">
-        <v>7.0030000000000001</v>
+        <v>3.4089999999999998</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C61">
-        <v>10.26</v>
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="C62">
-        <v>12.14</v>
+        <v>3.58</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="C63">
-        <v>14.13</v>
+        <v>2.2490000000000001</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64">
+        <v>1000</v>
+      </c>
+      <c r="C64">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>2000</v>
+      </c>
+      <c r="C65">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>3000</v>
+      </c>
+      <c r="C66">
+        <v>3.8559999999999999</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>4000</v>
+      </c>
+      <c r="C67">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>5000</v>
+      </c>
+      <c r="C68">
+        <v>3.956</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>6000</v>
+      </c>
+      <c r="C69">
+        <v>2.6920000000000002</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>7500</v>
+      </c>
+      <c r="C70">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>10000</v>
+      </c>
+      <c r="C71">
+        <v>2.274</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>12500</v>
+      </c>
+      <c r="C72">
+        <v>1.169</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>15000</v>
+      </c>
+      <c r="C73">
+        <v>3.3260000000000001</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>20000</v>
+      </c>
+      <c r="C74">
+        <v>4.1470000000000002</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>30000</v>
+      </c>
+      <c r="C75">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>40000</v>
+      </c>
+      <c r="C76">
+        <v>1.847</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C64">
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>50000</v>
+      </c>
+      <c r="C77">
+        <v>7.157</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="I80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>0.57199999999999995</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>2.274</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>3.391</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>15</v>
+      </c>
+      <c r="C86">
+        <v>7.0030000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>20</v>
+      </c>
+      <c r="C87">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>25</v>
+      </c>
+      <c r="C88">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>30</v>
+      </c>
+      <c r="C89">
+        <v>14.13</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>40</v>
+      </c>
+      <c r="C90">
         <v>19.14</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91">
         <v>50</v>
       </c>
-      <c r="C65">
+      <c r="C91">
         <v>23.93</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92">
         <v>60</v>
       </c>
-      <c r="C66">
+      <c r="C92">
         <v>26.2</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93">
         <v>70</v>
       </c>
-      <c r="C67">
+      <c r="C93">
         <v>32.22</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94">
         <v>85</v>
       </c>
-      <c r="C68">
+      <c r="C94">
         <v>39.81</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95">
         <v>100</v>
       </c>
-      <c r="C69">
+      <c r="C95">
         <v>48.86</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96">
         <v>150</v>
       </c>
-      <c r="C70">
+      <c r="C96">
         <v>63.49</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97">
         <v>200</v>
       </c>
-      <c r="C71">
+      <c r="C97">
         <v>96.33</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98">
         <v>300</v>
       </c>
-      <c r="C72">
+      <c r="C98">
         <v>134.97</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99">
         <v>500</v>
       </c>
-      <c r="C73">
+      <c r="C99">
         <v>214.89</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100">
         <v>1000</v>
       </c>
-      <c r="C74">
+      <c r="C100">
         <v>456.9</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101">
         <v>2000</v>
       </c>
-      <c r="C75">
+      <c r="C101">
         <v>824.1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H49">
+    <sortCondition ref="B3:B49"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
